--- a/Tasklist.xlsx
+++ b/Tasklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Web_Development\Cybersoft_FRONT-END_BC_14\Buoi7_8\2.Bai tap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2125FCFC-5015-42EC-978C-9531B5417D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2305F818-71CF-430E-BB35-AAA9B499DAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>Trưởng,Thảo</t>
+  </si>
+  <si>
+    <t>Thành viên:</t>
+  </si>
+  <si>
+    <t>Bùi Thị Minh Trâm</t>
+  </si>
+  <si>
+    <t>Trương Quốc Trưởng</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Thảo</t>
   </si>
 </sst>
 </file>
@@ -130,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +164,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -294,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -339,33 +358,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -635,10 +633,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J983"/>
+  <dimension ref="A1:J988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -654,206 +652,76 @@
     <col min="11" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B7" s="8">
         <v>44366</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C7" s="11">
         <v>44367</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F7" s="11">
         <v>44373</v>
-      </c>
-      <c r="G2" s="11">
-        <v>44381</v>
-      </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11">
-        <v>44366</v>
-      </c>
-      <c r="C3" s="11">
-        <v>44367</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11">
-        <v>44373</v>
-      </c>
-      <c r="G3" s="11">
-        <v>44381</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11">
-        <v>44366</v>
-      </c>
-      <c r="C4" s="11">
-        <v>44367</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="11">
-        <v>44373</v>
-      </c>
-      <c r="G4" s="11">
-        <v>44381</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11">
-        <v>44366</v>
-      </c>
-      <c r="C5" s="11">
-        <v>44367</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="11">
-        <v>44373</v>
-      </c>
-      <c r="G5" s="11">
-        <v>44381</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11">
-        <v>44366</v>
-      </c>
-      <c r="C6" s="11">
-        <v>44371</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="11">
-        <v>44374</v>
-      </c>
-      <c r="G6" s="11">
-        <v>44381</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11">
-        <v>44366</v>
-      </c>
-      <c r="C7" s="11">
-        <v>44371</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="11">
-        <v>44374</v>
       </c>
       <c r="G7" s="11">
         <v>44381</v>
@@ -861,29 +729,29 @@
       <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>25</v>
+      <c r="I7" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" s="11">
         <v>44366</v>
       </c>
       <c r="C8" s="11">
-        <v>44371</v>
+        <v>44367</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="11">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="G8" s="11">
         <v>44381</v>
@@ -892,28 +760,28 @@
         <v>1</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11">
         <v>44366</v>
       </c>
       <c r="C9" s="11">
-        <v>44371</v>
+        <v>44367</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="11">
-        <v>44374</v>
+        <v>44373</v>
       </c>
       <c r="G9" s="11">
         <v>44381</v>
@@ -922,28 +790,28 @@
         <v>1</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>17</v>
+      <c r="A10" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="11">
-        <v>44370</v>
+        <v>44366</v>
       </c>
       <c r="C10" s="11">
+        <v>44367</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11">
         <v>44373</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="11">
-        <v>44374</v>
       </c>
       <c r="G10" s="11">
         <v>44381</v>
@@ -952,25 +820,25 @@
         <v>1</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>18</v>
+      <c r="A11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="11">
-        <v>44370</v>
+        <v>44366</v>
       </c>
       <c r="C11" s="11">
-        <v>44373</v>
+        <v>44371</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>23</v>
+      <c r="E11" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="11">
         <v>44374</v>
@@ -981,26 +849,26 @@
       <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>26</v>
+      <c r="I11" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>19</v>
+      <c r="A12" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="11">
-        <v>44370</v>
+        <v>44366</v>
       </c>
       <c r="C12" s="11">
-        <v>44373</v>
+        <v>44371</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="11">
         <v>44374</v>
@@ -1012,25 +880,25 @@
         <v>1</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
+      <c r="A13" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="11">
-        <v>44370</v>
+        <v>44366</v>
       </c>
       <c r="C13" s="11">
-        <v>44373</v>
+        <v>44371</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="11">
         <v>44374</v>
@@ -1042,29 +910,174 @@
         <v>1</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44366</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44371</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="11">
+        <v>44374</v>
+      </c>
+      <c r="G14" s="11">
+        <v>44381</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44370</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44373</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="11">
+        <v>44374</v>
+      </c>
+      <c r="G15" s="11">
+        <v>44381</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44370</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44373</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="11">
+        <v>44374</v>
+      </c>
+      <c r="G16" s="11">
+        <v>44381</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44370</v>
+      </c>
+      <c r="C17" s="11">
+        <v>44373</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="11">
+        <v>44374</v>
+      </c>
+      <c r="G17" s="11">
+        <v>44381</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44370</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44373</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="11">
+        <v>44374</v>
+      </c>
+      <c r="G18" s="11">
+        <v>44381</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2016,33 +2029,38 @@
     <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="D2:D5 H2">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="D7:D10 H7">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H5">
+  <conditionalFormatting sqref="H8:H10">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D13">
+  <conditionalFormatting sqref="D11:D18">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H9">
+  <conditionalFormatting sqref="H11:H14">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H13">
+  <conditionalFormatting sqref="H15:H18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>